--- a/2012_fonds.xlsx
+++ b/2012_fonds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugodemenez/Library/CloudStorage/OneDrive-Bibliothèquespartagées-JUNIAGrandeécoled'ingénieurs/STUDENT_EMERGING_MARKETS_MEMOIRE_2023 - General/Memoire_M2_2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjunia.sharepoint.com/teams/STUDENT_EMERGING_MARKETS_MEMOIRE_2023/Shared Documents/General/Memoire_M2_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74236D59-0656-AF4E-B8CA-60A1A37BEA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{74236D59-0656-AF4E-B8CA-60A1A37BEA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42209DE8-4A34-6045-9C59-27F19C19655A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolios" sheetId="1" r:id="rId1"/>
@@ -268,8 +268,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Simulation de 231 portefeuilles avec différentes répartitions dans les marchés CAC40, S&amp;P 500 et MSCI Emerging Markets</a:t>
+              <a:t>Simulation de 231 portefeuilles avec différentes répartitions dans les marchés CAC40, S&amp;P 500 et MSCI Emerging Markets sur</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> la période 2012 à 2022</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -281,26 +286,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -338,7 +323,7 @@
             <c:numRef>
               <c:f>portfolios!$A$2:$A$232</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0\.0%</c:formatCode>
                 <c:ptCount val="231"/>
                 <c:pt idx="0">
                   <c:v>7.3179483158268943E-2</c:v>
@@ -1777,7 +1762,7 @@
             <c:numRef>
               <c:f>portfolios!$A$23:$A$232</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0\.0%</c:formatCode>
                 <c:ptCount val="210"/>
                 <c:pt idx="0">
                   <c:v>6.6663645132851376E-2</c:v>
@@ -3062,7 +3047,7 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Points critiques</c:v>
+            <c:v>Détails</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -3094,7 +3079,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F878C2B1-0B6C-CD40-A753-046E0DBACDA3}" type="CELLRANGE">
+                    <a:fld id="{33C24E5A-097A-CE47-ACE7-2E6FD6E8DF9A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -3127,7 +3112,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3213DB40-40B9-F343-B936-32B204C06B0D}" type="CELLRANGE">
+                    <a:fld id="{4AFB7381-F82D-C94C-B08A-5A70705E9730}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -3161,7 +3146,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D257E69-3FE8-084A-AE4A-3C0EA350A45F}" type="CELLRANGE">
+                    <a:fld id="{CFEB9AC0-1BA3-D848-AB84-DBEDB96EF48C}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -3233,10 +3218,6 @@
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
                 </c15:spPr>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
@@ -3261,7 +3242,7 @@
             <c:numRef>
               <c:f>portfolios!$I$2:$I$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0\.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>7.5611672691233714E-2</c:v>
@@ -3306,14 +3287,10 @@
 S&amp;P 500 : 30%</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>MSCI Emerging Markets : 0%
-CAC40 : 100%
-S&amp;P 500 : 0%</c:v>
+                    <c:v>CAC40 : 100%</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>MSCI Emerging Markets : 0%
-CAC40 : 0%
-S&amp;P 500 : 100%</c:v>
+                    <c:v>S&amp;P 500 : 100%</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -3384,28 +3361,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0\.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3497,26 +3454,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3636,562 +3573,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4523,7 +3904,7 @@
   <dimension ref="A1:N232"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4644,10 +4025,8 @@
         <v>5</v>
       </c>
       <c r="N3" s="2" t="str">
-        <f>K$1&amp;" : "&amp;K3&amp;CHAR(10)&amp;L$1&amp;" : "&amp;L3&amp;CHAR(10)&amp;M$1&amp;" : "&amp;M3</f>
-        <v>MSCI Emerging Markets : 0%
-CAC40 : 100%
-S&amp;P 500 : 0%</v>
+        <f>L$1&amp;" : "&amp;L3</f>
+        <v>CAC40 : 100%</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -4682,10 +4061,8 @@
         <v>6</v>
       </c>
       <c r="N4" s="2" t="str">
-        <f>K$1&amp;" : "&amp;K4&amp;CHAR(10)&amp;L$1&amp;" : "&amp;L4&amp;CHAR(10)&amp;M$1&amp;" : "&amp;M4</f>
-        <v>MSCI Emerging Markets : 0%
-CAC40 : 0%
-S&amp;P 500 : 100%</v>
+        <f>M$1&amp;" : "&amp;M4</f>
+        <v>S&amp;P 500 : 100%</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
